--- a/copilot-formulas-functions-demo.xlsx
+++ b/copilot-formulas-functions-demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://globebankinc-my.sharepoint.com/personal/fowen_globebankinc_com/Documents/Copilot with Excel exercise files/02_data_management/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{A888C9B0-B0B1-4E4A-9FBE-751CA4A3FD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFF9965E-6B54-4D64-98B7-A8C99A4AC690}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30A9B46-6460-45B8-BC65-502C8CED2B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="12549" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>ProductID</t>
   </si>
@@ -135,13 +135,16 @@
   </si>
   <si>
     <t>Mango</t>
+  </si>
+  <si>
+    <t>Proposed Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,6 +176,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -228,9 +238,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="35">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -269,7 +281,10 @@
     <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -301,15 +316,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CEDC3CB-A6CE-4D61-8E0C-F7B66093878C}" name="prices" displayName="prices" ref="A1:F17" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F17" xr:uid="{0CEDC3CB-A6CE-4D61-8E0C-F7B66093878C}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CEDC3CB-A6CE-4D61-8E0C-F7B66093878C}" name="prices" displayName="prices" ref="A1:G17" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G17" xr:uid="{0CEDC3CB-A6CE-4D61-8E0C-F7B66093878C}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{39A02BD4-E01E-4134-A944-1CCBC8CD1AA5}" name="ProductID"/>
     <tableColumn id="2" xr3:uid="{6F16F875-9DD2-42F7-A43F-672FE2B654FE}" name="ProductName"/>
     <tableColumn id="3" xr3:uid="{E079E444-5055-4D55-A8FF-24D49ECB2A71}" name="Size"/>
     <tableColumn id="4" xr3:uid="{1B60AE5D-B692-4D29-83C7-82787F227101}" name="Variety"/>
     <tableColumn id="5" xr3:uid="{6A875D87-8528-43CC-80B3-38AE930AF93A}" name="Price"/>
     <tableColumn id="6" xr3:uid="{9E502EC2-B952-4614-B1EF-FFED48423A36}" name="Status"/>
+    <tableColumn id="7" xr3:uid="{E4E72E04-184D-4912-97E7-287A4831B82B}" name="Proposed Price" dataDxfId="0">
+      <calculatedColumnFormula>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -637,23 +661,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.9" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.2109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.78515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.8125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -672,8 +696,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -692,8 +719,18 @@
       <c r="F2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -712,8 +749,18 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -732,8 +779,18 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -752,8 +809,18 @@
       <c r="F5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -772,8 +839,18 @@
       <c r="F6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -792,8 +869,18 @@
       <c r="F7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -812,8 +899,18 @@
       <c r="F8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -832,8 +929,18 @@
       <c r="F9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -852,8 +959,18 @@
       <c r="F10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -872,8 +989,18 @@
       <c r="F11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -892,8 +1019,18 @@
       <c r="F12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -912,8 +1049,18 @@
       <c r="F13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -932,8 +1079,18 @@
       <c r="F14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G14" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -952,8 +1109,18 @@
       <c r="F15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G15" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -972,8 +1139,18 @@
       <c r="F16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G16" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -991,6 +1168,16 @@
       </c>
       <c r="F17" t="s">
         <v>29</v>
+      </c>
+      <c r="G17" s="3">
+        <f>ROUND(
+    IF(prices[[#This Row],[Status]]="DISCONTINUED",
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05) - 0.05) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0),
+        prices[[#This Row],[Price]] * (1 - IF(prices[[#This Row],[Size]]=32, 0.1, 0.05)) - IF(OR(prices[[#This Row],[Variety]]="Lemon-Lime", prices[[#This Row],[Variety]]="Orange"), 0.1, 0)
+    ),
+    2
+)</f>
+        <v>3.14</v>
       </c>
     </row>
   </sheetData>
